--- a/weekdayToTime.xlsx
+++ b/weekdayToTime.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vini/Documents/git/waterGuy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{306E85A2-965C-8640-9973-6B776AB4C578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D9AFB5-199E-0B4E-8792-D16DEEC19D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{5CE511FC-DD09-5D47-A10D-A74D8BC97EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -107,6 +107,334 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D485CBD-9BA7-4EDE-2D00-64C3A27F653B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7327900" y="584200"/>
+          <a:ext cx="5524500" cy="3149600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>[ { "pin": 4, "val": 1, "time": 360 }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>365</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1800</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1805</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3240</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3245</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4680</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4685</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6120</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6125</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7560</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7565</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> } , { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9005</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> } ]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,7 +757,7 @@
   <dimension ref="B2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,7 +783,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <v>45292</v>
+        <v>45292.25</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -464,13 +792,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>(B4-B$2)*1440</f>
-        <v>0</v>
+        <f t="shared" ref="E4:E17" si="0">(B4-B$2)*1440</f>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
-        <v>45292.010416666664</v>
+        <v>45292.253472222219</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -479,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>(B5-B$2)*1440</f>
-        <v>14.99999999650754</v>
+        <f t="shared" si="0"/>
+        <v>364.99999999534339</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
-        <v>45293</v>
+        <v>45293.25</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -494,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>(B6-B$2)*1440</f>
-        <v>1440</v>
+        <f t="shared" si="0"/>
+        <v>1800</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>45293.010416666664</v>
+        <v>45293.253472222219</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -509,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f>(B7-B$2)*1440</f>
-        <v>1454.9999999965075</v>
+        <f t="shared" si="0"/>
+        <v>1804.9999999953434</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>45294</v>
+        <v>45294.25</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -524,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>(B8-B$2)*1440</f>
-        <v>2880</v>
+        <f t="shared" si="0"/>
+        <v>3240</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>45294.010416666664</v>
+        <v>45294.253472222219</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
@@ -539,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f>(B9-B$2)*1440</f>
-        <v>2894.9999999965075</v>
+        <f t="shared" si="0"/>
+        <v>3244.9999999953434</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>45295</v>
+        <v>45295.25</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -554,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>(B10-B$2)*1440</f>
-        <v>4320</v>
+        <f t="shared" si="0"/>
+        <v>4680</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>45295.010416666664</v>
+        <v>45295.253472222219</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
@@ -569,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f>(B11-B$2)*1440</f>
-        <v>4334.9999999965075</v>
+        <f t="shared" si="0"/>
+        <v>4684.9999999953434</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
-        <v>45296</v>
+        <v>45296.25</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -584,13 +912,13 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>(B12-B$2)*1440</f>
-        <v>5760</v>
+        <f t="shared" si="0"/>
+        <v>6120</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>45296.010416666664</v>
+        <v>45296.253472222219</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -599,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f>(B13-B$2)*1440</f>
-        <v>5774.9999999965075</v>
+        <f t="shared" si="0"/>
+        <v>6124.9999999953434</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
-        <v>45297</v>
+        <v>45297.25</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -614,13 +942,13 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>(B14-B$2)*1440</f>
-        <v>7200</v>
+        <f t="shared" si="0"/>
+        <v>7560</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>45297.010416666664</v>
+        <v>45297.253472222219</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -629,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f>(B15-B$2)*1440</f>
-        <v>7214.9999999965075</v>
+        <f t="shared" si="0"/>
+        <v>7564.9999999953434</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
-        <v>45298</v>
+        <v>45298.25</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -644,13 +972,13 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>(B16-B$2)*1440</f>
-        <v>8640</v>
+        <f t="shared" si="0"/>
+        <v>9000</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>45298.010416666664</v>
+        <v>45298.253472222219</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -659,8 +987,8 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f>(B17-B$2)*1440</f>
-        <v>8654.9999999965075</v>
+        <f t="shared" si="0"/>
+        <v>9004.9999999953434</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -743,5 +1071,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/weekdayToTime.xlsx
+++ b/weekdayToTime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vini/Documents/git/waterGuy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D9AFB5-199E-0B4E-8792-D16DEEC19D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC83573-3B1F-B747-8E3A-98B526FF0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{5CE511FC-DD09-5D47-A10D-A74D8BC97EF1}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{5CE511FC-DD09-5D47-A10D-A74D8BC97EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>pin</t>
   </si>
@@ -45,6 +45,27 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Dom</t>
+  </si>
+  <si>
+    <t>Seg</t>
+  </si>
+  <si>
+    <t>Ter</t>
+  </si>
+  <si>
+    <t>Quar</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>Sab</t>
   </si>
 </sst>
 </file>
@@ -113,16 +134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -137,8 +158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7327900" y="584200"/>
-          <a:ext cx="5524500" cy="3149600"/>
+          <a:off x="5130800" y="622300"/>
+          <a:ext cx="3987800" cy="5765800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -174,19 +195,33 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>[ { "pin": 4, "val": 1, "time": 360 }, { "pin": 4, "val": 0, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>365</a:t>
+            <a:t>domingo-segunda</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> 7h por 3 min</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>[ { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>420</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-BR"/>
@@ -194,6 +229,26 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>423</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
             <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
           </a:r>
           <a:r>
@@ -206,7 +261,167 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1800</a:t>
+            <a:t>1860</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1863</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3300</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3303</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4740</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4743</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6180</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6183</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7620</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-BR"/>
@@ -226,7 +441,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1805</a:t>
+            <a:t>7623</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-BR"/>
@@ -246,183 +461,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3240</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3245</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4680</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4685</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>6120</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>6125</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>7560</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> }, { "pin": 4, "val": 0, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>7565</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> }, { "pin": 4, "val": 1, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>9000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> } , { "pin": 4, "val": 1, "time": </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>9005</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-BR"/>
-            <a:t> </a:t>
+            <a:t>9060</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> } , { "pin": 4, "val": 0, "time": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9063</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-BR"/>
+            <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US"/>
@@ -754,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5ED66EA-4A28-814B-9227-744693E026D5}">
-  <dimension ref="B2:E43"/>
+  <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,12 +828,12 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>45292</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -781,9 +844,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="1">
-        <v>45292.25</v>
+        <v>45292.291666666664</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -793,12 +859,12 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E17" si="0">(B4-B$2)*1440</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+        <v>419.99999999650754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
-        <v>45292.253472222219</v>
+        <v>45292.293749999997</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -808,12 +874,15 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>364.99999999534339</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+        <v>422.99999999580905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="1">
-        <v>45293.25</v>
+        <v>45293.291666666664</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -823,12 +892,12 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1859.9999999965075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>45293.253472222219</v>
+        <v>45293.293749999997</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -838,12 +907,15 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1804.9999999953434</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1862.999999995809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="2">
-        <v>45294.25</v>
+        <v>45294.291666666664</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -853,12 +925,12 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+        <v>3299.9999999965075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>45294.253472222219</v>
+        <v>45294.293749999997</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
@@ -868,12 +940,15 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>3244.9999999953434</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+        <v>3302.999999995809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" s="2">
-        <v>45295.25</v>
+        <v>45295.291666666664</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -883,12 +958,12 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+        <v>4739.9999999965075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>45295.253472222219</v>
+        <v>45295.293749999997</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
@@ -898,12 +973,15 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>4684.9999999953434</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+        <v>4742.999999995809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="2">
-        <v>45296.25</v>
+        <v>45296.291666666664</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -913,12 +991,12 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>6120</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+        <v>6179.9999999965075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>45296.253472222219</v>
+        <v>45296.293749999997</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -928,12 +1006,15 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>6124.9999999953434</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+        <v>6182.999999995809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
       <c r="B14" s="2">
-        <v>45297.25</v>
+        <v>45297.291666666664</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -943,12 +1024,12 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+        <v>7619.9999999965075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>45297.253472222219</v>
+        <v>45297.293749999997</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -958,12 +1039,15 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>7564.9999999953434</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+        <v>7622.999999995809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
       <c r="B16" s="2">
-        <v>45298.25</v>
+        <v>45298.291666666664</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -973,12 +1057,12 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>9059.9999999965075</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>45298.253472222219</v>
+        <v>45298.293749999997</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -988,7 +1072,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>9004.9999999953434</v>
+        <v>9062.999999995809</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
